--- a/exec/symlex_vpn_windows/general(settings)  11-2-24/general_settings.xlsx
+++ b/exec/symlex_vpn_windows/general(settings)  11-2-24/general_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\general(settings)  11-2-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62196593-5302-4E8C-AB73-382FBA2B5884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76D7F5-8C86-415F-A66A-849A7E61C0F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -459,6 +459,9 @@
   <si>
     <t>should be changed as per sigma</t>
   </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -651,14 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -677,6 +672,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,9 +1633,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,15 +1651,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1678,13 +1681,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1706,25 +1709,25 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2"/>
@@ -1748,25 +1751,25 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="3"/>
@@ -1790,10 +1793,10 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1805,7 +1808,7 @@
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6"/>
@@ -1830,10 +1833,10 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1845,7 +1848,7 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6"/>
@@ -1870,10 +1873,10 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1885,7 +1888,7 @@
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="6"/>
@@ -1910,10 +1913,10 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1925,7 +1928,7 @@
       <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="6"/>
@@ -1950,10 +1953,10 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1965,7 +1968,7 @@
       <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="6"/>
@@ -1990,10 +1993,10 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2005,7 +2008,7 @@
       <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="6"/>
@@ -2030,10 +2033,10 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2045,7 +2048,7 @@
       <c r="E11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="6"/>
@@ -2070,10 +2073,10 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2085,7 +2088,7 @@
       <c r="E12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="6"/>
@@ -2110,10 +2113,10 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2150,10 +2153,10 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2188,10 +2191,10 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2226,10 +2229,10 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2266,10 +2269,10 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2306,10 +2309,10 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2346,10 +2349,10 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2386,10 +2389,10 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2426,10 +2429,10 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2466,13 +2469,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2482,7 +2485,7 @@
         <v>82</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="1"/>
@@ -2506,10 +2509,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2546,10 +2549,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2586,10 +2589,10 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2626,10 +2629,10 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2641,10 +2644,10 @@
       <c r="E26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>

--- a/exec/symlex_vpn_windows/general(settings)  11-2-24/general_settings.xlsx
+++ b/exec/symlex_vpn_windows/general(settings)  11-2-24/general_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\general(settings)  11-2-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76D7F5-8C86-415F-A66A-849A7E61C0F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D119674F-FBE6-47C9-9F49-71C67A7BB0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,22 +477,26 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
